--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scope" sheetId="4" r:id="rId1"/>
+    <sheet name="School Syllabus" sheetId="5" r:id="rId1"/>
+    <sheet name="Non Curricular" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
-  <si>
-    <t>C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="64">
   <si>
     <t>Data Science</t>
   </si>
@@ -28,12 +26,6 @@
     <t>Faculty</t>
   </si>
   <si>
-    <t>Artificial Intelligence - Computer Vision</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence - Video Processing</t>
-  </si>
-  <si>
     <t>IoT, Robotics</t>
   </si>
   <si>
@@ -43,18 +35,9 @@
     <t>Networking Basics</t>
   </si>
   <si>
-    <t>BA, Bcom, BBA, Non IT Professionals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE, ME, BCA, MCA,BSc, MSc, IT Professionals </t>
-  </si>
-  <si>
     <t>School Co curricular</t>
   </si>
   <si>
-    <t>School Curricular IoT &amp; AI</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -67,33 +50,18 @@
     <t>Shamik</t>
   </si>
   <si>
-    <t>Debashish</t>
-  </si>
-  <si>
     <t>Certification Preparation</t>
   </si>
   <si>
-    <t>CLA-11-02</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
     <t>Data Analytics</t>
   </si>
   <si>
-    <t>Python Institute PCEP</t>
-  </si>
-  <si>
     <t>Audience</t>
   </si>
   <si>
-    <t>Artificial Intelligence - DSP</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence - NLP</t>
-  </si>
-  <si>
     <t>Advanced IoT, Robotics</t>
   </si>
   <si>
@@ -130,20 +98,122 @@
     <t>Coursera</t>
   </si>
   <si>
-    <t>IoT Foundation (IoTF)</t>
-  </si>
-  <si>
-    <t>Total Discounted Fees With GST ₹</t>
-  </si>
-  <si>
-    <t>Total Actual Fees With GST ₹</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>BA, Bcom, BBA, Non-ITEP</t>
+  </si>
+  <si>
+    <t>Discounted Fees With GST ₹</t>
+  </si>
+  <si>
+    <t>Actual Fees With GST ₹</t>
+  </si>
+  <si>
+    <t>AI - DSP</t>
+  </si>
+  <si>
+    <t>AI - NLP</t>
+  </si>
+  <si>
+    <t>AI - Computer Vision</t>
+  </si>
+  <si>
+    <t>AI - Video Processing</t>
+  </si>
+  <si>
+    <t>Py Inst PCEP</t>
+  </si>
+  <si>
+    <t>IoTF</t>
+  </si>
+  <si>
+    <t>BE, ME, BCA, MCA,BSc, ITEP</t>
+  </si>
+  <si>
+    <t>Faculty 1</t>
+  </si>
+  <si>
+    <t>Faculty 2</t>
+  </si>
+  <si>
+    <t>Faculty 3</t>
+  </si>
+  <si>
+    <t>Faculty 4</t>
+  </si>
+  <si>
+    <t>AI - Comp Vision</t>
+  </si>
+  <si>
+    <t>ICSE</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Advnc IoT, Robotics</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Advnc  Data Sci</t>
+  </si>
+  <si>
+    <t>AI - Data Sci Basics</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Cy Sec Basics</t>
+  </si>
+  <si>
+    <t>Not Confirmed</t>
+  </si>
+  <si>
+    <t>Soft Skills</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
+  </si>
+  <si>
+    <t>Anirban</t>
+  </si>
+  <si>
+    <t>Bappaditya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +245,18 @@
       <color rgb="FFFF0000"/>
       <name val="Oxygen"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +305,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -414,7 +530,78 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -424,7 +611,44 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -433,10 +657,169 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -446,58 +829,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -507,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -566,6 +967,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -575,80 +1012,243 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -994,72 +1594,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="28" width="8" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27"/>
-      <c r="C2" s="23" t="s">
+    <row r="1" spans="2:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="89"/>
+    </row>
+    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="70">
+        <v>2025</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="37"/>
+      <c r="C12" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2022</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="36"/>
+      <c r="C14" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="37"/>
+      <c r="C16" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="37"/>
+      <c r="C18" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E9:N18">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="21.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20"/>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="C3" s="9">
         <v>12</v>
       </c>
       <c r="D3" s="9">
@@ -1089,18 +2342,15 @@
       <c r="L3" s="9">
         <v>12</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>12</v>
       </c>
-      <c r="N3" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="25">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2">
@@ -1130,18 +2380,15 @@
       <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="25">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2">
@@ -1171,69 +2418,63 @@
       <c r="L5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>2</v>
       </c>
-      <c r="N5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="34">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="24">
+        <v>4500</v>
+      </c>
+      <c r="D6" s="24">
+        <v>4500</v>
+      </c>
+      <c r="E6" s="24">
         <v>3000</v>
       </c>
-      <c r="D6" s="35">
+      <c r="F6" s="24">
         <v>4500</v>
       </c>
-      <c r="E6" s="35">
+      <c r="G6" s="24">
         <v>4500</v>
       </c>
-      <c r="F6" s="35">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="35">
+      <c r="H6" s="24">
         <v>4500</v>
       </c>
-      <c r="H6" s="35">
+      <c r="I6" s="24">
         <v>4500</v>
       </c>
-      <c r="I6" s="35">
+      <c r="J6" s="24">
         <v>4500</v>
       </c>
-      <c r="J6" s="35">
+      <c r="K6" s="24">
         <v>4500</v>
       </c>
-      <c r="K6" s="35">
-        <v>4500</v>
-      </c>
-      <c r="L6" s="35">
-        <v>4500</v>
-      </c>
-      <c r="M6" s="35">
+      <c r="L6" s="24">
         <v>8000</v>
       </c>
-      <c r="N6" s="36">
+      <c r="M6" s="25">
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="25">
-        <v>540</v>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>810</v>
       </c>
       <c r="D7" s="2">
         <v>810</v>
       </c>
       <c r="E7" s="2">
+        <v>540</v>
+      </c>
+      <c r="F7" s="2">
         <v>810</v>
-      </c>
-      <c r="F7" s="2">
-        <v>540</v>
       </c>
       <c r="G7" s="2">
         <v>810</v>
@@ -1251,538 +2492,451 @@
         <v>810</v>
       </c>
       <c r="L7" s="2">
-        <v>810</v>
-      </c>
-      <c r="M7" s="2">
         <v>1440</v>
       </c>
-      <c r="N7" s="3">
+      <c r="M7" s="3">
         <v>1440</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="37">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="26">
+        <v>5310</v>
+      </c>
+      <c r="D8" s="26">
+        <v>5310</v>
+      </c>
+      <c r="E8" s="26">
         <v>3540</v>
       </c>
-      <c r="D8" s="38">
+      <c r="F8" s="26">
         <v>5310</v>
       </c>
-      <c r="E8" s="38">
+      <c r="G8" s="26">
         <v>5310</v>
       </c>
-      <c r="F8" s="38">
-        <v>3540</v>
-      </c>
-      <c r="G8" s="38">
+      <c r="H8" s="26">
         <v>5310</v>
       </c>
-      <c r="H8" s="38">
+      <c r="I8" s="26">
         <v>5310</v>
       </c>
-      <c r="I8" s="38">
+      <c r="J8" s="26">
         <v>5310</v>
       </c>
-      <c r="J8" s="38">
+      <c r="K8" s="26">
         <v>5310</v>
       </c>
-      <c r="K8" s="38">
-        <v>5310</v>
-      </c>
-      <c r="L8" s="38">
-        <v>5310</v>
-      </c>
-      <c r="M8" s="38">
+      <c r="L8" s="26">
         <v>9440</v>
       </c>
-      <c r="N8" s="39">
+      <c r="M8" s="27">
         <v>9440</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="2:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="28">
+        <f t="shared" ref="C12:M12" si="0">C6*2</f>
+        <v>9000</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="L12" s="28">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="40">
-        <f>C6*2</f>
-        <v>6000</v>
-      </c>
-      <c r="D12" s="41">
-        <f>D6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="E12" s="41">
-        <f>E6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="F12" s="41">
-        <f>F6*2</f>
-        <v>6000</v>
-      </c>
-      <c r="G12" s="41">
-        <f>G6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="H12" s="41">
-        <f>H6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="I12" s="41">
-        <f>I6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="J12" s="41">
-        <f>J6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="K12" s="41">
-        <f>K6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="L12" s="41">
-        <f>L6*2</f>
-        <v>9000</v>
-      </c>
-      <c r="M12" s="41">
-        <f>M6*2</f>
-        <v>16000</v>
-      </c>
-      <c r="N12" s="42">
-        <f>N6*2</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="25">
-        <f>C7*2</f>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:M13" si="1">C7*2</f>
+        <v>1620</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>1620</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="D13" s="2">
-        <f>D7*2</f>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="E13" s="2">
-        <f>E7*2</f>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="F13" s="2">
-        <f>F7*2</f>
-        <v>1080</v>
-      </c>
-      <c r="G13" s="2">
-        <f>G7*2</f>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="H13" s="2">
-        <f>H7*2</f>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="I13" s="2">
-        <f>I7*2</f>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="J13" s="2">
-        <f>J7*2</f>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="K13" s="2">
-        <f>K7*2</f>
-        <v>1620</v>
-      </c>
       <c r="L13" s="2">
-        <f>L7*2</f>
-        <v>1620</v>
-      </c>
-      <c r="M13" s="2">
-        <f>M7*2</f>
+        <f t="shared" si="1"/>
         <v>2880</v>
       </c>
-      <c r="N13" s="3">
-        <f>N7*2</f>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
         <v>2880</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="43">
-        <f>C8*2</f>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="30">
+        <f t="shared" ref="C14:M14" si="2">C8*2</f>
+        <v>10620</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" si="2"/>
+        <v>10620</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" si="2"/>
         <v>7080</v>
       </c>
-      <c r="D14" s="44">
-        <f>D8*2</f>
+      <c r="F14" s="30">
+        <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="E14" s="44">
-        <f>E8*2</f>
+      <c r="G14" s="30">
+        <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="F14" s="44">
-        <f>F8*2</f>
-        <v>7080</v>
-      </c>
-      <c r="G14" s="44">
-        <f>G8*2</f>
+      <c r="H14" s="30">
+        <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="H14" s="44">
-        <f>H8*2</f>
+      <c r="I14" s="30">
+        <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="I14" s="44">
-        <f>I8*2</f>
+      <c r="J14" s="30">
+        <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="J14" s="44">
-        <f>J8*2</f>
+      <c r="K14" s="30">
+        <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="K14" s="44">
-        <f>K8*2</f>
-        <v>10620</v>
-      </c>
-      <c r="L14" s="44">
-        <f>L8*2</f>
-        <v>10620</v>
-      </c>
-      <c r="M14" s="44">
-        <f>M8*2</f>
+      <c r="L14" s="30">
+        <f t="shared" si="2"/>
         <v>18880</v>
       </c>
-      <c r="N14" s="45">
-        <f>N8*2</f>
+      <c r="M14" s="31">
+        <f t="shared" si="2"/>
         <v>18880</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>17</v>
-      </c>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="F15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="2:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="L15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
         <v>14</v>
       </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B9:M9"/>
   </mergeCells>
-  <conditionalFormatting sqref="C17:D20 F17:N20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="C17:M19">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="School Syllabus" sheetId="5" r:id="rId1"/>
@@ -1003,6 +1003,198 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1011,244 +1203,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1596,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1623,198 +1583,198 @@
     <row r="1" spans="2:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="81" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="64" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="76" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="79"/>
-      <c r="E5" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="91" t="s">
+      <c r="E5" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="94" t="s">
+      <c r="N5" s="69" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="79"/>
-      <c r="E6" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="91" t="s">
+      <c r="E6" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="94" t="s">
+      <c r="N6" s="69" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="97" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="98" t="s">
+      <c r="N7" s="73" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="87" t="s">
@@ -1831,391 +1791,396 @@
       <c r="N8" s="89"/>
     </row>
     <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="55" t="s">
+      <c r="E9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="56" t="s">
+      <c r="L9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="60" t="s">
+      <c r="D10" s="91"/>
+      <c r="E10" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="61" t="s">
+      <c r="L10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="83">
         <v>2025</v>
       </c>
-      <c r="E11" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="60" t="s">
+      <c r="E11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="60" t="s">
+      <c r="H11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="62" t="s">
+      <c r="K11" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="37"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="66" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="66" t="s">
+      <c r="H12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="68" t="s">
+      <c r="K12" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="85">
         <v>2022</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="55" t="s">
+      <c r="E13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="73" t="s">
+      <c r="N13" s="54" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="60" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="60" t="s">
+      <c r="M14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="74" t="s">
+      <c r="N14" s="55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="60" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="60" t="s">
+      <c r="H15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="60" t="s">
+      <c r="J15" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="62" t="s">
+      <c r="N15" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="37"/>
-      <c r="C16" s="63" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="66" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="66" t="s">
+      <c r="H16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="66" t="s">
+      <c r="J16" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="66" t="s">
+      <c r="M16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="68" t="s">
+      <c r="N16" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="54" t="s">
+      <c r="E17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="37"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="65" t="s">
+      <c r="D18" s="92"/>
+      <c r="E18" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="60" t="s">
+      <c r="K18" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="69" t="s">
+      <c r="N18" s="51" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B3:D3"/>
@@ -2223,11 +2188,6 @@
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:N18">
@@ -2247,11 +2207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2537,20 +2497,20 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
@@ -2798,20 +2758,20 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="98"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="School Syllabus" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
   <si>
     <t>Data Science</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Bappaditya</t>
+  </si>
+  <si>
+    <t>Anirban?</t>
+  </si>
+  <si>
+    <t>Weeks for Certification &amp; Interview Training</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +928,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,9 +943,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -985,24 +982,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,7 +1015,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,55 +1030,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,10 +1087,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,31 +1099,88 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,70 +1192,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,594 +1583,594 @@
     <row r="1" spans="2:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="59" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="63" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="57" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="57" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="66" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="68" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="66" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="68" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="72" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="72" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="89"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="37" t="s">
+      <c r="E9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="38" t="s">
+      <c r="L9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="86"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="42" t="s">
+      <c r="D10" s="90"/>
+      <c r="E10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="43" t="s">
+      <c r="L10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="86"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="79">
         <v>2025</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="42" t="s">
+      <c r="E11" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="42" t="s">
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="80"/>
+      <c r="C12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="44" t="s">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="81">
+        <v>2022</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84"/>
-      <c r="C12" s="45" t="s">
+      <c r="M13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="82"/>
+      <c r="C14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="82"/>
+      <c r="E14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="82"/>
+      <c r="C15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="80"/>
+      <c r="C16" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="48" t="s">
+      <c r="D16" s="80"/>
+      <c r="E16" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="H16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="50" t="s">
+      <c r="J16" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="M16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="85">
-        <v>2022</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="37" t="s">
+      <c r="D17" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="L17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="86"/>
-      <c r="C14" s="39" t="s">
+      <c r="M17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="80"/>
+      <c r="C18" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="42" t="s">
+      <c r="D18" s="91"/>
+      <c r="E18" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="L18" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="86"/>
-      <c r="C15" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="42" t="s">
+      <c r="M18" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="84"/>
-      <c r="C16" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="84"/>
-      <c r="C18" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="50" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2205,13 +2205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,7 +2233,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9">
@@ -2307,7 +2307,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2">
@@ -2345,7 +2345,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2">
@@ -2383,45 +2383,45 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>4500</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>4500</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>3000</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>4500</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>4500</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>4500</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>4500</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>4500</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>4500</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>8000</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <v>8000</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2">
@@ -2459,61 +2459,61 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>5310</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>5310</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>3540</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>5310</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>5310</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>5310</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>5310</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>5310</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>5310</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>9440</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <v>9440</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2551,7 +2551,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2588,311 +2588,365 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="28">
-        <f t="shared" ref="C12:M12" si="0">C6*2</f>
+      <c r="C13" s="27">
+        <f t="shared" ref="C13:M13" si="0">C6*2</f>
         <v>9000</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D13" s="27">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I13" s="27">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J13" s="27">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K13" s="27">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L13" s="27">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M13" s="28">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:M13" si="1">C7*2</f>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:M14" si="1">C7*2</f>
         <v>1620</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>1620</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
         <v>2880</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
         <v>2880</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="30">
-        <f t="shared" ref="C14:M14" si="2">C8*2</f>
+      <c r="C15" s="29">
+        <f t="shared" ref="C15:M15" si="2">C8*2</f>
         <v>10620</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D15" s="29">
         <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E15" s="29">
         <f t="shared" si="2"/>
         <v>7080</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F15" s="29">
         <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G15" s="29">
         <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H15" s="29">
         <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I15" s="29">
         <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J15" s="29">
         <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K15" s="29">
         <f t="shared" si="2"/>
         <v>10620</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L15" s="29">
         <f t="shared" si="2"/>
         <v>18880</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M15" s="30">
         <f t="shared" si="2"/>
         <v>18880</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13" t="s">
+      <c r="C16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11" t="s">
+      <c r="G16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M16" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="96" t="s">
+    <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="98"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="19" t="s">
+      <c r="C20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
     <mergeCell ref="B9:M9"/>
   </mergeCells>
-  <conditionalFormatting sqref="C17:M19">
+  <conditionalFormatting sqref="C18:M20">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="School Syllabus" sheetId="5" r:id="rId1"/>
-    <sheet name="Non Curricular" sheetId="4" r:id="rId2"/>
+    <sheet name="EP &amp; Freshers &amp; CoCurricular" sheetId="4" r:id="rId1"/>
+    <sheet name="School Syllabus" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="69">
   <si>
     <t>Data Science</t>
   </si>
@@ -213,6 +213,26 @@
   </si>
   <si>
     <t>Weeks for Certification &amp; Interview Training</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Discount
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>(if paid at once)</t>
+    </r>
+  </si>
+  <si>
+    <t>Offer Price/Year</t>
+  </si>
+  <si>
+    <t>Fees/Month ₹</t>
   </si>
 </sst>
 </file>
@@ -342,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -744,9 +764,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -757,28 +786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -796,17 +803,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -902,13 +898,61 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1018,123 +1062,132 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1147,15 +1200,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,33 +1212,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1201,14 +1221,188 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1554,664 +1748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="28" width="8" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="21.44140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="88"/>
-    </row>
-    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
-      <c r="C10" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="82"/>
-      <c r="C11" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="79">
-        <v>2025</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="80"/>
-      <c r="C12" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="81">
-        <v>2022</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
-      <c r="C14" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
-      <c r="C15" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" s="43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="80"/>
-      <c r="C16" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="80"/>
-      <c r="C18" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B4:D4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E9:N18">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,20 +2040,20 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
@@ -2544,7 +2087,7 @@
         <v>26</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>36</v>
@@ -2777,31 +2320,31 @@
       <c r="B16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="65" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="98" t="s">
+      <c r="J16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="98" t="s">
+      <c r="K16" s="65" t="s">
         <v>64</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -2812,20 +2355,20 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="97"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
@@ -2947,10 +2490,763 @@
     <mergeCell ref="B9:M9"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:M20">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="30" width="8" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="21.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="97">
+        <v>6000</v>
+      </c>
+      <c r="P9" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="99">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="83"/>
+      <c r="C10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="100">
+        <v>6000</v>
+      </c>
+      <c r="P10" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="102">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="83"/>
+      <c r="C11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="82">
+        <v>2025</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="100">
+        <v>5000</v>
+      </c>
+      <c r="P11" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="102">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="67"/>
+      <c r="C12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="103">
+        <v>5000</v>
+      </c>
+      <c r="P12" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="105">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="66">
+        <v>2022</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="97">
+        <v>6000</v>
+      </c>
+      <c r="P13" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="99">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="83"/>
+      <c r="C14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="83"/>
+      <c r="E14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="100">
+        <v>6000</v>
+      </c>
+      <c r="P14" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="102">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="83"/>
+      <c r="C15" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="100">
+        <v>5000</v>
+      </c>
+      <c r="P15" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="102">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="67"/>
+      <c r="C16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="103">
+        <v>5000</v>
+      </c>
+      <c r="P16" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="105">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="106">
+        <v>5000</v>
+      </c>
+      <c r="P17" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="108">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="67"/>
+      <c r="C18" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="103">
+        <v>5000</v>
+      </c>
+      <c r="P18" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="105">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E9:N18">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="EP &amp; Freshers &amp; CoCurricular" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="110">
   <si>
     <t>Data Science</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Discount</t>
-  </si>
-  <si>
-    <t>Extra Weeks for Cert &amp; Interview Training</t>
   </si>
   <si>
     <r>
@@ -379,6 +376,12 @@
   </si>
   <si>
     <t>Week 24</t>
+  </si>
+  <si>
+    <t>Extra Weeks for Cert, Interview &amp; Project</t>
+  </si>
+  <si>
+    <t>Live Project</t>
   </si>
 </sst>
 </file>
@@ -1493,6 +1496,42 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1520,6 +1559,69 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1555,105 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2005,19 +2008,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:M2"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="24" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="24" bestFit="1" customWidth="1"/>
@@ -2297,20 +2300,20 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
     </row>
     <row r="10" spans="2:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
@@ -2329,19 +2332,19 @@
         <v>22</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="34" t="s">
         <v>33</v>
@@ -2390,520 +2393,558 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="34">
-        <v>12</v>
-      </c>
-      <c r="D12" s="34">
-        <v>12</v>
-      </c>
-      <c r="E12" s="34">
-        <v>12</v>
-      </c>
-      <c r="F12" s="34">
-        <v>12</v>
-      </c>
-      <c r="G12" s="34">
-        <v>12</v>
-      </c>
-      <c r="H12" s="34">
-        <v>12</v>
-      </c>
-      <c r="I12" s="34">
-        <v>12</v>
-      </c>
-      <c r="J12" s="34">
-        <v>12</v>
-      </c>
-      <c r="K12" s="34">
-        <v>12</v>
-      </c>
-      <c r="L12" s="34">
-        <v>12</v>
-      </c>
-      <c r="M12" s="35">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="D13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="E13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="F13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="G13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="H13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="I13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="J13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="K13" s="36">
-        <v>4500</v>
-      </c>
-      <c r="L13" s="36">
-        <v>9000</v>
-      </c>
-      <c r="M13" s="37">
-        <v>9000</v>
+        <v>108</v>
+      </c>
+      <c r="C13" s="34">
+        <v>12</v>
+      </c>
+      <c r="D13" s="34">
+        <v>12</v>
+      </c>
+      <c r="E13" s="34">
+        <v>12</v>
+      </c>
+      <c r="F13" s="34">
+        <v>12</v>
+      </c>
+      <c r="G13" s="34">
+        <v>12</v>
+      </c>
+      <c r="H13" s="34">
+        <v>12</v>
+      </c>
+      <c r="I13" s="34">
+        <v>12</v>
+      </c>
+      <c r="J13" s="34">
+        <v>12</v>
+      </c>
+      <c r="K13" s="34">
+        <v>12</v>
+      </c>
+      <c r="L13" s="34">
+        <v>12</v>
+      </c>
+      <c r="M13" s="35">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="34">
-        <v>810</v>
-      </c>
-      <c r="D14" s="34">
-        <v>810</v>
-      </c>
-      <c r="E14" s="34">
-        <v>810</v>
-      </c>
-      <c r="F14" s="34">
-        <v>810</v>
-      </c>
-      <c r="G14" s="34">
-        <v>810</v>
-      </c>
-      <c r="H14" s="34">
-        <v>810</v>
-      </c>
-      <c r="I14" s="34">
-        <v>810</v>
-      </c>
-      <c r="J14" s="34">
-        <v>810</v>
-      </c>
-      <c r="K14" s="34">
-        <v>810</v>
-      </c>
-      <c r="L14" s="34">
-        <v>1620</v>
-      </c>
-      <c r="M14" s="35">
-        <v>1620</v>
+        <v>81</v>
+      </c>
+      <c r="C14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="D14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="E14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="G14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="H14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="I14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="J14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="K14" s="36">
+        <v>4500</v>
+      </c>
+      <c r="L14" s="36">
+        <v>9000</v>
+      </c>
+      <c r="M14" s="37">
+        <v>9000</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="34">
+        <v>810</v>
+      </c>
+      <c r="D15" s="34">
+        <v>810</v>
+      </c>
+      <c r="E15" s="34">
+        <v>810</v>
+      </c>
+      <c r="F15" s="34">
+        <v>810</v>
+      </c>
+      <c r="G15" s="34">
+        <v>810</v>
+      </c>
+      <c r="H15" s="34">
+        <v>810</v>
+      </c>
+      <c r="I15" s="34">
+        <v>810</v>
+      </c>
+      <c r="J15" s="34">
+        <v>810</v>
+      </c>
+      <c r="K15" s="34">
+        <v>810</v>
+      </c>
+      <c r="L15" s="34">
+        <v>1620</v>
+      </c>
+      <c r="M15" s="35">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C16" s="40">
         <v>10620</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D16" s="40">
         <v>10620</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E16" s="40">
         <v>10620</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F16" s="40">
         <v>10620</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G16" s="40">
         <v>10620</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H16" s="40">
         <v>10620</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I16" s="40">
         <v>10620</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J16" s="40">
         <v>10620</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K16" s="40">
         <v>10620</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L16" s="40">
         <v>21240</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M16" s="41">
         <v>21240</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="42" t="s">
+    <row r="17" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L17" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="46" t="s">
+      <c r="M17" s="46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="99" t="s">
+    <row r="18" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="113"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="50" t="s">
+      <c r="F19" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M19" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="42" t="s">
+      <c r="C20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="54" t="s">
+      <c r="C21" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="54" t="s">
+      <c r="G21" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="54" t="s">
+      <c r="J21" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
+      <c r="L21" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="107"/>
-    </row>
-    <row r="22" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="78" t="s">
+      <c r="C22" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+    </row>
+    <row r="23" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C23" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="104"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="116"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C24" s="56">
         <v>28000</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D24" s="57">
         <v>28000</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E24" s="57">
         <v>28000</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F24" s="57">
         <v>28000</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G24" s="57">
         <v>28000</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H24" s="57">
         <v>28000</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I24" s="57">
         <v>28000</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J24" s="57">
         <v>28000</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K24" s="57">
         <v>28000</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L24" s="57">
         <v>28000</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M24" s="58">
         <v>28000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="59">
-        <v>14000</v>
-      </c>
-      <c r="D24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="E24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="F24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="G24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="H24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="I24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="J24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="K24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="L24" s="60">
-        <v>14000</v>
-      </c>
-      <c r="M24" s="61">
-        <v>14000</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="59">
+        <v>14000</v>
+      </c>
+      <c r="D25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="E25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="F25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="G25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="H25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="I25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="J25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="K25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="L25" s="60">
+        <v>14000</v>
+      </c>
+      <c r="M25" s="61">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C26" s="59">
         <v>7000</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D26" s="60">
         <v>7000</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E26" s="60">
         <v>7000</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F26" s="60">
         <v>7000</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G26" s="60">
         <v>7000</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H26" s="60">
         <v>7000</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I26" s="60">
         <v>7000</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J26" s="60">
         <v>7000</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K26" s="60">
         <v>7000</v>
       </c>
-      <c r="L25" s="60">
+      <c r="L26" s="60">
         <v>7000</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M26" s="61">
         <v>7000</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="49" t="s">
+    <row r="27" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C27" s="62">
         <v>3500</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D27" s="63">
         <v>3500</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E27" s="63">
         <v>3500</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F27" s="63">
         <v>3500</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G27" s="63">
         <v>3500</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H27" s="63">
         <v>3500</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I27" s="63">
         <v>3500</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J27" s="63">
         <v>3500</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K27" s="63">
         <v>3500</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L27" s="63">
         <v>3500</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M27" s="64">
         <v>3500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="C23:M23"/>
     <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C21:M21"/>
   </mergeCells>
-  <conditionalFormatting sqref="C18:M20 C21">
+  <conditionalFormatting sqref="C19:M21 C22">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -2977,122 +3018,122 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3139,11 +3180,11 @@
   <sheetData>
     <row r="1" spans="2:24" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
@@ -3176,204 +3217,204 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="142" t="s">
+      <c r="H3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="142" t="s">
+      <c r="J3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="142" t="s">
+      <c r="K3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="142" t="s">
+      <c r="L3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="143" t="s">
+      <c r="M3" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="111" t="s">
+      <c r="O3" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="113"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="146"/>
     </row>
     <row r="4" spans="2:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="145" t="s">
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="146" t="s">
+      <c r="I4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="146" t="s">
+      <c r="J4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="146" t="s">
+      <c r="L4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="147" t="s">
+      <c r="M4" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="148" t="s">
+      <c r="N4" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="149"/>
+    </row>
+    <row r="5" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="116"/>
-    </row>
-    <row r="5" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="145" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="152"/>
+    </row>
+    <row r="6" spans="2:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="146" t="s">
+      <c r="F6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="146" t="s">
+      <c r="H6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="146" t="s">
+      <c r="J6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="146" t="s">
+      <c r="K6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="146" t="s">
+      <c r="L6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="147" t="s">
+      <c r="M6" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="148" t="s">
+      <c r="N6" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="119"/>
-    </row>
-    <row r="6" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="130" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="149" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="151" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="152" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="108" t="s">
+      <c r="O6" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="108" t="s">
+      <c r="P6" s="142"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="109"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="108" t="s">
+      <c r="S6" s="142"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="110"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="143"/>
     </row>
     <row r="7" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -3385,18 +3426,18 @@
       <c r="D7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
       <c r="O7" s="79" t="s">
         <v>64</v>
       </c>
@@ -3429,13 +3470,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="128" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="135" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="91" t="s">
@@ -3500,11 +3541,11 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="137"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="125"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="96" t="s">
         <v>51</v>
       </c>
@@ -3567,11 +3608,11 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="137"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="136">
+      <c r="D10" s="126">
         <v>2025</v>
       </c>
       <c r="E10" s="96" t="s">
@@ -3636,11 +3677,11 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="121"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="93" t="s">
         <v>51</v>
       </c>
@@ -3703,13 +3744,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="128" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="120">
+      <c r="D12" s="128">
         <v>2022</v>
       </c>
       <c r="E12" s="82" t="s">
@@ -3774,11 +3815,11 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="137"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="137"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="89" t="s">
         <v>7</v>
       </c>
@@ -3841,11 +3882,11 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="137"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="137"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="89" t="s">
         <v>7</v>
       </c>
@@ -3908,11 +3949,11 @@
       </c>
     </row>
     <row r="15" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="121"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="121"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="90" t="s">
         <v>7</v>
       </c>
@@ -3975,13 +4016,13 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="128" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="135" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="91" t="s">
@@ -4046,11 +4087,11 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="121"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="126"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="93" t="s">
         <v>51</v>
       </c>
@@ -4114,6 +4155,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="D10:D11"/>
@@ -4121,18 +4174,6 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="O4:X4"/>
-    <mergeCell ref="O5:X5"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EP &amp; Freshers &amp; CoCurricular" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="148">
   <si>
     <t>Data Science</t>
   </si>
@@ -382,6 +382,120 @@
   </si>
   <si>
     <t>Live Project</t>
+  </si>
+  <si>
+    <t>Lists &amp; Tuples</t>
+  </si>
+  <si>
+    <t>Types, Variables &amp; Expressions</t>
+  </si>
+  <si>
+    <t>Strings &amp; String Operations</t>
+  </si>
+  <si>
+    <t>Dictionaries &amp; Sets</t>
+  </si>
+  <si>
+    <t>Conditions, Branching &amp; Loops</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Objects &amp; Classes</t>
+  </si>
+  <si>
+    <t>File Read &amp; Write</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Numpy - One &amp; Two Dimensional Arrays</t>
+  </si>
+  <si>
+    <t>Mini Project - Album Cover</t>
+  </si>
+  <si>
+    <t>Data Wrangling</t>
+  </si>
+  <si>
+    <t>Model Evaluation &amp; Refinement</t>
+  </si>
+  <si>
+    <t>Exploratory Analysis of Data</t>
+  </si>
+  <si>
+    <t>Data Model Development</t>
+  </si>
+  <si>
+    <t>Data Vizualization - Matplitlib, Line Plots</t>
+  </si>
+  <si>
+    <t>Area Plots, Histogram, Bar Charts</t>
+  </si>
+  <si>
+    <t>Pie Charts, Box Plots, Scatter Plots</t>
+  </si>
+  <si>
+    <t>Import, Export &amp; Analyzing Data in Py</t>
+  </si>
+  <si>
+    <t>Waffel Charts, Word Clouds, Seaborn &amp; Regression</t>
+  </si>
+  <si>
+    <t>Foliun, Markers &amp; Choropleth</t>
+  </si>
+  <si>
+    <t>Mini Project</t>
+  </si>
+  <si>
+    <t>Introduction, Packages in Vizualization</t>
+  </si>
+  <si>
+    <t>Deep Learning I</t>
+  </si>
+  <si>
+    <t>MLOps I</t>
+  </si>
+  <si>
+    <t>Deep Learning II</t>
+  </si>
+  <si>
+    <t>Deep Learning III</t>
+  </si>
+  <si>
+    <t>Deep Learning IV</t>
+  </si>
+  <si>
+    <t>MLOps II</t>
+  </si>
+  <si>
+    <t>MLOps III</t>
+  </si>
+  <si>
+    <t>MLOps IV</t>
+  </si>
+  <si>
+    <t>Tensorflow I</t>
+  </si>
+  <si>
+    <t>Tensorflow II</t>
+  </si>
+  <si>
+    <t>Keras I</t>
+  </si>
+  <si>
+    <t>Keras II</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>DSP</t>
   </si>
 </sst>
 </file>
@@ -1559,6 +1673,63 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,6 +1739,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1580,12 +1760,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1597,66 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,16 +2124,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="24" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="24" customWidth="1"/>
     <col min="2" max="2" width="38.21875" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="24" bestFit="1" customWidth="1"/>
@@ -2034,7 +2148,7 @@
     <col min="14" max="16384" width="21.44140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:13" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
@@ -2961,22 +3075,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2989,25 +3104,25 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
@@ -3020,60 +3135,177 @@
       <c r="B3" t="s">
         <v>84</v>
       </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>85</v>
       </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>86</v>
       </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>87</v>
       </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>88</v>
       </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>89</v>
       </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>90</v>
       </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>91</v>
       </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>92</v>
       </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>93</v>
       </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>94</v>
       </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -3180,11 +3412,11 @@
   <sheetData>
     <row r="1" spans="2:24" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
@@ -3217,11 +3449,11 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="99" t="s">
         <v>59</v>
       </c>
@@ -3252,25 +3484,25 @@
       <c r="N3" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="144" t="s">
+      <c r="O3" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="146"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="125"/>
     </row>
     <row r="4" spans="2:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="103" t="s">
         <v>59</v>
       </c>
@@ -3301,25 +3533,25 @@
       <c r="N4" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="147" t="s">
+      <c r="O4" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="148"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="149"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="128"/>
     </row>
     <row r="5" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="103" t="s">
         <v>59</v>
       </c>
@@ -3350,25 +3582,25 @@
       <c r="N5" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="150" t="s">
+      <c r="O5" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="152"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="131"/>
     </row>
     <row r="6" spans="2:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="107" t="s">
         <v>59</v>
       </c>
@@ -3399,22 +3631,22 @@
       <c r="N6" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="141" t="s">
+      <c r="O6" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="141" t="s">
+      <c r="P6" s="121"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="142"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="141" t="s">
+      <c r="S6" s="121"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="143"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="122"/>
     </row>
     <row r="7" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -3426,18 +3658,18 @@
       <c r="D7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
       <c r="O7" s="79" t="s">
         <v>64</v>
       </c>
@@ -3470,13 +3702,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="132" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="136" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="91" t="s">
@@ -3541,11 +3773,11 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="129"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="136"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="96" t="s">
         <v>51</v>
       </c>
@@ -3608,11 +3840,11 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="129"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="148">
         <v>2025</v>
       </c>
       <c r="E10" s="96" t="s">
@@ -3677,11 +3909,11 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="127"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="93" t="s">
         <v>51</v>
       </c>
@@ -3744,13 +3976,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="132" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="128">
+      <c r="D12" s="132">
         <v>2022</v>
       </c>
       <c r="E12" s="82" t="s">
@@ -3815,11 +4047,11 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="129"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="129"/>
+      <c r="D13" s="149"/>
       <c r="E13" s="89" t="s">
         <v>7</v>
       </c>
@@ -3882,11 +4114,11 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="129"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="129"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="89" t="s">
         <v>7</v>
       </c>
@@ -3949,11 +4181,11 @@
       </c>
     </row>
     <row r="15" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="127"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="127"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="90" t="s">
         <v>7</v>
       </c>
@@ -4016,13 +4248,13 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="132" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="136" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="91" t="s">
@@ -4087,11 +4319,11 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="127"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="137"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="93" t="s">
         <v>51</v>
       </c>
@@ -4155,18 +4387,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="O4:X4"/>
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="D10:D11"/>
@@ -4174,6 +4394,18 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="O5:X5"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EP &amp; Freshers &amp; CoCurricular" sheetId="4" r:id="rId1"/>
@@ -250,32 +250,6 @@
   </si>
   <si>
     <t>Discount</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bring a friend &amp; get 50% off on yourself </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Oxygen"/>
-      </rPr>
-      <t>(NOT combined with other offers)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pay at once and get 50% off </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Oxygen"/>
-      </rPr>
-      <t>(NOT combined with other offers)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -497,12 +471,38 @@
   <si>
     <t>DSP</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bring a friend &amp; get 50% off on yourself </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>(NOT combined with other offers)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pay at once and get 50% off </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>(NOT combined with other offers)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,18 +581,12 @@
       <name val="Oxygen"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Oxygen"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,12 +620,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1325,7 +1313,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,24 +1322,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,7 +1349,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,13 +1361,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,16 +1421,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1547,16 +1529,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,64 +1568,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,13 +1637,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,41 +1655,41 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1721,13 +1703,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,7 +2110,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2136,15 +2118,14 @@
     <col min="1" max="1" width="1.33203125" style="24" customWidth="1"/>
     <col min="2" max="2" width="38.21875" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="21.44140625" style="24"/>
   </cols>
   <sheetData>
@@ -2304,37 +2285,37 @@
         <v>19</v>
       </c>
       <c r="C6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="D6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="E6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="F6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="G6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="H6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="I6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="J6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="K6" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L6" s="36">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M6" s="37">
-        <v>9000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -2342,37 +2323,37 @@
         <v>18</v>
       </c>
       <c r="C7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="D7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="E7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="F7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="G7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="H7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="I7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="J7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="K7" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="L7" s="34">
-        <v>1620</v>
+        <v>1440</v>
       </c>
       <c r="M7" s="35">
-        <v>1620</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2380,54 +2361,54 @@
         <v>26</v>
       </c>
       <c r="C8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="D8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="E8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="F8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="G8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="H8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="I8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="J8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="K8" s="38">
-        <v>5310</v>
+        <v>9440</v>
       </c>
       <c r="L8" s="38">
-        <v>10620</v>
+        <v>9440</v>
       </c>
       <c r="M8" s="39">
-        <v>10620</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="2:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
@@ -2446,19 +2427,19 @@
         <v>22</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L10" s="34" t="s">
         <v>33</v>
@@ -2507,7 +2488,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>20</v>
@@ -2545,7 +2526,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="34">
         <v>12</v>
@@ -2583,207 +2564,207 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="D14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="F14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="H14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="I14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="J14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="K14" s="36">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L14" s="36">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M14" s="37">
-        <v>9000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="D15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="H15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="I15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="J15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="K15" s="34">
-        <v>810</v>
+        <v>1440</v>
       </c>
       <c r="L15" s="34">
-        <v>1620</v>
+        <v>1440</v>
       </c>
       <c r="M15" s="35">
-        <v>1620</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="D16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="E16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="F16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="G16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="H16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="I16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="J16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="K16" s="40">
-        <v>10620</v>
-      </c>
-      <c r="L16" s="40">
-        <v>21240</v>
-      </c>
-      <c r="M16" s="41">
-        <v>21240</v>
+      <c r="C16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="D16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="E16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="F16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="G16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="H16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="I16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="J16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="K16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="L16" s="38">
+        <v>9440</v>
+      </c>
+      <c r="M16" s="39">
+        <v>9440</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="46" t="s">
+      <c r="M17" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="113"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="111"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="50" t="s">
+      <c r="F19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="49" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2791,75 +2772,75 @@
       <c r="B20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="53" t="s">
+      <c r="C20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="54" t="s">
+      <c r="C21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="54" t="s">
+      <c r="G21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="54" t="s">
+      <c r="J21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="55" t="s">
+      <c r="L21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2867,187 +2848,187 @@
       <c r="B22" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
+      <c r="C22" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="117"/>
     </row>
     <row r="23" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="116"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="114"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="54">
         <v>28000</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="55">
         <v>28000</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="55">
         <v>28000</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="55">
         <v>28000</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="55">
         <v>28000</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="55">
         <v>28000</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="55">
         <v>28000</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="55">
         <v>28000</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="55">
         <v>28000</v>
       </c>
-      <c r="L24" s="57">
+      <c r="L24" s="55">
         <v>28000</v>
       </c>
-      <c r="M24" s="58">
+      <c r="M24" s="56">
         <v>28000</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="57">
         <v>14000</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="58">
         <v>14000</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="58">
         <v>14000</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="58">
         <v>14000</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="58">
         <v>14000</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="58">
         <v>14000</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="58">
         <v>14000</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="58">
         <v>14000</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="58">
         <v>14000</v>
       </c>
-      <c r="L25" s="60">
+      <c r="L25" s="58">
         <v>14000</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M25" s="59">
         <v>14000</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="57">
         <v>7000</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="58">
         <v>7000</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="58">
         <v>7000</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="58">
         <v>7000</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="58">
         <v>7000</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="58">
         <v>7000</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="58">
         <v>7000</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="58">
         <v>7000</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="58">
         <v>7000</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="58">
         <v>7000</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26" s="59">
         <v>7000</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="60">
         <v>3500</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="61">
         <v>3500</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="61">
         <v>3500</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="61">
         <v>3500</v>
       </c>
-      <c r="G27" s="63">
+      <c r="G27" s="61">
         <v>3500</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="61">
         <v>3500</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="61">
         <v>3500</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="61">
         <v>3500</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="61">
         <v>3500</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="61">
         <v>3500</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="62">
         <v>3500</v>
       </c>
     </row>
@@ -3075,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,239 +3114,239 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3377,46 +3358,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="65" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="6" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="65" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="65" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="65" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="65" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="65" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" style="65" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.109375" style="65" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" style="65" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="65" customWidth="1"/>
-    <col min="25" max="27" width="8" style="65" customWidth="1"/>
-    <col min="28" max="16384" width="21.44140625" style="65"/>
+    <col min="1" max="1" width="2" style="63" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="63" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="63" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="63" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" style="63" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.109375" style="63" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" style="63" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" style="63" customWidth="1"/>
+    <col min="25" max="27" width="8" style="63" customWidth="1"/>
+    <col min="28" max="16384" width="21.44140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
@@ -3448,205 +3429,205 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="150" t="s">
+    <row r="3" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="99" t="s">
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="102" t="s">
+      <c r="N3" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="123" t="s">
+      <c r="O3" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="125"/>
-    </row>
-    <row r="4" spans="2:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="139" t="s">
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="103" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="128"/>
-    </row>
-    <row r="5" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139" t="s">
+      <c r="O4" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="126"/>
+    </row>
+    <row r="5" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="103" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="104" t="s">
+      <c r="L5" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="131"/>
+      <c r="O5" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="129"/>
     </row>
     <row r="6" spans="2:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="107" t="s">
+      <c r="C6" s="141"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="108" t="s">
+      <c r="I6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="108" t="s">
+      <c r="J6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="108" t="s">
+      <c r="K6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="108" t="s">
+      <c r="L6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="110" t="s">
+      <c r="N6" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="120" t="s">
+      <c r="O6" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="120" t="s">
+      <c r="P6" s="119"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="121"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="120" t="s">
+      <c r="S6" s="119"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="122"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="120"/>
     </row>
     <row r="7" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -3658,60 +3639,60 @@
       <c r="D7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="79" t="s">
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="80" t="s">
+      <c r="P7" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="81" t="s">
+      <c r="Q7" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="79" t="s">
+      <c r="R7" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="80" t="s">
+      <c r="S7" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="81" t="s">
+      <c r="T7" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="79" t="s">
+      <c r="U7" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="80" t="s">
+      <c r="V7" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="80" t="s">
+      <c r="W7" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="81" t="s">
+      <c r="X7" s="79" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="130" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="89" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -3738,47 +3719,47 @@
       <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="83">
+      <c r="N8" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="81">
         <v>1</v>
       </c>
-      <c r="P8" s="84">
+      <c r="P8" s="82">
         <v>1</v>
       </c>
-      <c r="Q8" s="85">
+      <c r="Q8" s="83">
         <v>2</v>
       </c>
-      <c r="R8" s="86">
+      <c r="R8" s="84">
         <v>6000</v>
       </c>
-      <c r="S8" s="87">
+      <c r="S8" s="85">
         <v>0.5</v>
       </c>
-      <c r="T8" s="88">
+      <c r="T8" s="86">
         <v>36000</v>
       </c>
-      <c r="U8" s="83">
+      <c r="U8" s="81">
         <v>32000</v>
       </c>
-      <c r="V8" s="84">
+      <c r="V8" s="82">
         <v>16000</v>
       </c>
-      <c r="W8" s="84">
+      <c r="W8" s="82">
         <v>8000</v>
       </c>
-      <c r="X8" s="85">
+      <c r="X8" s="83">
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="149"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="135"/>
+      <c r="E9" s="94" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -3805,49 +3786,49 @@
       <c r="M9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="66">
+      <c r="N9" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="64">
         <v>1</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="65">
         <v>1</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="66">
         <v>2</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="67">
         <v>6000</v>
       </c>
-      <c r="S9" s="70">
+      <c r="S9" s="68">
         <v>0.5</v>
       </c>
-      <c r="T9" s="71">
+      <c r="T9" s="69">
         <v>36000</v>
       </c>
-      <c r="U9" s="66">
+      <c r="U9" s="64">
         <v>32000</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="65">
         <v>16000</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="65">
         <v>8000</v>
       </c>
-      <c r="X9" s="68">
+      <c r="X9" s="66">
         <v>4000</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="149"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="148">
+      <c r="D10" s="146">
         <v>2025</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="94" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -3874,47 +3855,47 @@
       <c r="M10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="98" t="s">
+      <c r="N10" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="64">
         <v>1</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="65">
         <v>1</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="66">
         <v>2</v>
       </c>
-      <c r="R10" s="69">
+      <c r="R10" s="67">
         <v>5000</v>
       </c>
-      <c r="S10" s="70">
+      <c r="S10" s="68">
         <v>0.5</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="69">
         <v>30000</v>
       </c>
-      <c r="U10" s="66">
+      <c r="U10" s="64">
         <v>25600</v>
       </c>
-      <c r="V10" s="67">
+      <c r="V10" s="65">
         <v>12800</v>
       </c>
-      <c r="W10" s="67">
+      <c r="W10" s="65">
         <v>6400</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="66">
         <v>3200</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="133"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="93" t="s">
+      <c r="D11" s="131"/>
+      <c r="E11" s="91" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -3941,51 +3922,51 @@
       <c r="M11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="94" t="s">
+      <c r="N11" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="72">
+      <c r="O11" s="70">
         <v>1</v>
       </c>
-      <c r="P11" s="73">
+      <c r="P11" s="71">
         <v>1</v>
       </c>
-      <c r="Q11" s="74">
+      <c r="Q11" s="72">
         <v>2</v>
       </c>
-      <c r="R11" s="75">
+      <c r="R11" s="73">
         <v>5000</v>
       </c>
-      <c r="S11" s="76">
+      <c r="S11" s="74">
         <v>0.5</v>
       </c>
-      <c r="T11" s="77">
+      <c r="T11" s="75">
         <v>30000</v>
       </c>
-      <c r="U11" s="72">
+      <c r="U11" s="70">
         <v>25600</v>
       </c>
-      <c r="V11" s="73">
+      <c r="V11" s="71">
         <v>12800</v>
       </c>
-      <c r="W11" s="73">
+      <c r="W11" s="71">
         <v>6400</v>
       </c>
-      <c r="X11" s="74">
+      <c r="X11" s="72">
         <v>3200</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="130" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="130">
         <v>2022</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="80" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -4015,44 +3996,44 @@
       <c r="N12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="83">
+      <c r="O12" s="81">
         <v>1</v>
       </c>
-      <c r="P12" s="84">
+      <c r="P12" s="82">
         <v>1</v>
       </c>
-      <c r="Q12" s="85">
+      <c r="Q12" s="83">
         <v>2</v>
       </c>
-      <c r="R12" s="86">
+      <c r="R12" s="84">
         <v>6000</v>
       </c>
-      <c r="S12" s="87">
+      <c r="S12" s="85">
         <v>0.5</v>
       </c>
-      <c r="T12" s="88">
+      <c r="T12" s="86">
         <v>36000</v>
       </c>
-      <c r="U12" s="83">
+      <c r="U12" s="81">
         <v>32000</v>
       </c>
-      <c r="V12" s="84">
+      <c r="V12" s="82">
         <v>16000</v>
       </c>
-      <c r="W12" s="84">
+      <c r="W12" s="82">
         <v>8000</v>
       </c>
-      <c r="X12" s="85">
+      <c r="X12" s="83">
         <v>4000</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="149"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="89" t="s">
+      <c r="D13" s="147"/>
+      <c r="E13" s="87" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -4082,44 +4063,44 @@
       <c r="N13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="66">
+      <c r="O13" s="64">
         <v>1</v>
       </c>
-      <c r="P13" s="67">
+      <c r="P13" s="65">
         <v>1</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="66">
         <v>2</v>
       </c>
-      <c r="R13" s="69">
+      <c r="R13" s="67">
         <v>6000</v>
       </c>
-      <c r="S13" s="70">
+      <c r="S13" s="68">
         <v>0.5</v>
       </c>
-      <c r="T13" s="71">
+      <c r="T13" s="69">
         <v>36000</v>
       </c>
-      <c r="U13" s="66">
+      <c r="U13" s="64">
         <v>32000</v>
       </c>
-      <c r="V13" s="67">
+      <c r="V13" s="65">
         <v>16000</v>
       </c>
-      <c r="W13" s="67">
+      <c r="W13" s="65">
         <v>8000</v>
       </c>
-      <c r="X13" s="68">
+      <c r="X13" s="66">
         <v>4000</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="149"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="89" t="s">
+      <c r="D14" s="147"/>
+      <c r="E14" s="87" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -4149,44 +4130,44 @@
       <c r="N14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="66">
+      <c r="O14" s="64">
         <v>1</v>
       </c>
-      <c r="P14" s="67">
+      <c r="P14" s="65">
         <v>1</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="66">
         <v>2</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="67">
         <v>5000</v>
       </c>
-      <c r="S14" s="70">
+      <c r="S14" s="68">
         <v>0.5</v>
       </c>
-      <c r="T14" s="71">
+      <c r="T14" s="69">
         <v>30000</v>
       </c>
-      <c r="U14" s="66">
+      <c r="U14" s="64">
         <v>25600</v>
       </c>
-      <c r="V14" s="67">
+      <c r="V14" s="65">
         <v>12800</v>
       </c>
-      <c r="W14" s="67">
+      <c r="W14" s="65">
         <v>6400</v>
       </c>
-      <c r="X14" s="68">
+      <c r="X14" s="66">
         <v>3200</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="133"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="90" t="s">
+      <c r="D15" s="131"/>
+      <c r="E15" s="88" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -4216,49 +4197,49 @@
       <c r="N15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="72">
+      <c r="O15" s="70">
         <v>1</v>
       </c>
-      <c r="P15" s="73">
+      <c r="P15" s="71">
         <v>1</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="72">
         <v>2</v>
       </c>
-      <c r="R15" s="75">
+      <c r="R15" s="73">
         <v>5000</v>
       </c>
-      <c r="S15" s="76">
+      <c r="S15" s="74">
         <v>0.5</v>
       </c>
-      <c r="T15" s="77">
+      <c r="T15" s="75">
         <v>30000</v>
       </c>
-      <c r="U15" s="72">
+      <c r="U15" s="70">
         <v>25600</v>
       </c>
-      <c r="V15" s="73">
+      <c r="V15" s="71">
         <v>12800</v>
       </c>
-      <c r="W15" s="73">
+      <c r="W15" s="71">
         <v>6400</v>
       </c>
-      <c r="X15" s="74">
+      <c r="X15" s="72">
         <v>3200</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="130" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="91" t="s">
-        <v>51</v>
+      <c r="E16" s="89" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
@@ -4276,56 +4257,56 @@
         <v>24</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="83">
+        <v>8</v>
+      </c>
+      <c r="N16" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="81">
         <v>1</v>
       </c>
-      <c r="P16" s="84">
+      <c r="P16" s="82">
         <v>1</v>
       </c>
-      <c r="Q16" s="85">
+      <c r="Q16" s="83">
         <v>2</v>
       </c>
-      <c r="R16" s="86">
+      <c r="R16" s="84">
         <v>5000</v>
       </c>
-      <c r="S16" s="87">
+      <c r="S16" s="85">
         <v>0.5</v>
       </c>
-      <c r="T16" s="88">
+      <c r="T16" s="86">
         <v>30000</v>
       </c>
-      <c r="U16" s="83">
+      <c r="U16" s="81">
         <v>25600</v>
       </c>
-      <c r="V16" s="84">
+      <c r="V16" s="82">
         <v>12800</v>
       </c>
-      <c r="W16" s="84">
+      <c r="W16" s="82">
         <v>6400</v>
       </c>
-      <c r="X16" s="85">
+      <c r="X16" s="83">
         <v>3200</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="133"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="93" t="s">
-        <v>51</v>
+      <c r="D17" s="136"/>
+      <c r="E17" s="91" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
@@ -4343,45 +4324,45 @@
         <v>24</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="72">
+        <v>8</v>
+      </c>
+      <c r="N17" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="70">
         <v>1</v>
       </c>
-      <c r="P17" s="73">
+      <c r="P17" s="71">
         <v>1</v>
       </c>
-      <c r="Q17" s="74">
+      <c r="Q17" s="72">
         <v>2</v>
       </c>
-      <c r="R17" s="75">
+      <c r="R17" s="73">
         <v>5000</v>
       </c>
-      <c r="S17" s="76">
+      <c r="S17" s="74">
         <v>0.5</v>
       </c>
-      <c r="T17" s="77">
+      <c r="T17" s="75">
         <v>30000</v>
       </c>
-      <c r="U17" s="72">
+      <c r="U17" s="70">
         <v>25600</v>
       </c>
-      <c r="V17" s="73">
+      <c r="V17" s="71">
         <v>12800</v>
       </c>
-      <c r="W17" s="73">
+      <c r="W17" s="71">
         <v>6400</v>
       </c>
-      <c r="X17" s="74">
+      <c r="X17" s="72">
         <v>3200</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
+++ b/Offline/BusinessManagement/Teach_Tech@anodiam/AI_Robotics/ScopeAI.xlsx
@@ -1655,6 +1655,69 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1689,69 +1752,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3358,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3393,11 +3393,11 @@
   <sheetData>
     <row r="1" spans="2:24" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
@@ -3430,11 +3430,11 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="97" t="s">
         <v>59</v>
       </c>
@@ -3465,25 +3465,25 @@
       <c r="N3" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="121" t="s">
+      <c r="O3" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="123"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="144"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="101" t="s">
         <v>59</v>
       </c>
@@ -3514,25 +3514,25 @@
       <c r="N4" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="124" t="s">
+      <c r="O4" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="126"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="147"/>
     </row>
     <row r="5" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="101" t="s">
         <v>59</v>
       </c>
@@ -3563,25 +3563,25 @@
       <c r="N5" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="127" t="s">
+      <c r="O5" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="129"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="150"/>
     </row>
     <row r="6" spans="2:24" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="105" t="s">
         <v>59</v>
       </c>
@@ -3612,22 +3612,22 @@
       <c r="N6" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="118" t="s">
+      <c r="O6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="118" t="s">
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="119"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="118" t="s">
+      <c r="S6" s="140"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="120"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="141"/>
     </row>
     <row r="7" spans="2:24" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -3639,18 +3639,18 @@
       <c r="D7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
       <c r="O7" s="77" t="s">
         <v>64</v>
       </c>
@@ -3683,13 +3683,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="126" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="133" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="89" t="s">
@@ -3754,11 +3754,11 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="147"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="94" t="s">
         <v>51</v>
       </c>
@@ -3821,11 +3821,11 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="147"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="124">
         <v>2025</v>
       </c>
       <c r="E10" s="94" t="s">
@@ -3890,11 +3890,11 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="131"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="91" t="s">
         <v>51</v>
       </c>
@@ -3957,13 +3957,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="126" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="130">
+      <c r="D12" s="126">
         <v>2022</v>
       </c>
       <c r="E12" s="80" t="s">
@@ -4028,11 +4028,11 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="147"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="147"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="87" t="s">
         <v>7</v>
       </c>
@@ -4095,11 +4095,11 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="147"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="147"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="87" t="s">
         <v>7</v>
       </c>
@@ -4162,11 +4162,11 @@
       </c>
     </row>
     <row r="15" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="131"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="88" t="s">
         <v>7</v>
       </c>
@@ -4229,13 +4229,13 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="126" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="133" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="89" t="s">
@@ -4300,11 +4300,11 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="131"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="136"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="91" t="s">
         <v>8</v>
       </c>
@@ -4368,6 +4368,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="D10:D11"/>
@@ -4375,18 +4387,6 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="O4:X4"/>
-    <mergeCell ref="O5:X5"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:N17">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
